--- a/Documentation/futek LSB 200_5LBS force sensor.xlsx
+++ b/Documentation/futek LSB 200_5LBS force sensor.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joti\Documents\GitHub\Futek_Sensor_Arduino\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E78277C-D3F4-4A8F-A25B-091A4DD9EE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B24199-2384-472F-8705-CA97409731D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11775" yWindow="7785" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{61E56C63-5102-4D40-A6C0-4466FE1CBF09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61E56C63-5102-4D40-A6C0-4466FE1CBF09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Second test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
   <si>
     <t>Compression</t>
   </si>
@@ -79,14 +80,18 @@
   <si>
     <t>Linear Equation  Force=a*digital_value+b</t>
   </si>
+  <si>
+    <t>Real Weight (g)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.00_ ;\-0.00\ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ ;\-0.00\ "/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -120,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -180,24 +185,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -210,9 +229,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -590,6 +608,591 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Second test'!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Output voltage (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.46989873140857391"/>
+                  <c:y val="-1.4305555555555556E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Second test'!$C$30:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.9756800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99568000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50568000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21168000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4680000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5279999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5480000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5680000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5680000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.4492000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.4292E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.3691999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.132692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.23069200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.52469200000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0146920000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.9946919999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.9746920000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.4646920000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Second test'!$D$30:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.84399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00_ ;\-0.00\ ">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.4039999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-297F-406E-9AC6-0FCDCF8C3D6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="592044280"/>
+        <c:axId val="592046576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="592044280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Weight</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> (g)</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592046576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="592046576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Force (N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592044280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3188,7 +3791,1739 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Second test'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Output voltage (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.45102362204724411"/>
+                  <c:y val="2.8976013414989794E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Second test'!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>201.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00_ ;\-0.00\ ">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-23.54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-53.54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-103.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-203.54</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-303.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-353.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Second test'!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.84399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.000">
+                  <c:v>-1.204</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.000">
+                  <c:v>-1.4039999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2FE8-4603-A907-A1B38BE23D17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="740153680"/>
+        <c:axId val="740155320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="740153680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Weight</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> (g)</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740155320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="740155320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Output Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777779E-3"/>
+              <c:y val="0.27405074365704285"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740153680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Second test'!$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40801552930883639"/>
+                  <c:y val="2.736111111111111E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Second test'!$A$52:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.9756800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99568000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50568000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21168000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4680000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5279999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5480000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5680000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5680000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.4492000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.4292E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.3691999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.132692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.23069200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.52469200000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0146920000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.9946919999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Second test'!$C$52:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>172.85120000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.947199999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.166399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.6736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6016000000000012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5296000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.4336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.5055999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.1920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-16.384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-40.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-82.124800000000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-164.24960000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F6F7-4E0A-A3F4-10E7BADED52C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="743650752"/>
+        <c:axId val="743641240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="743650752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Force</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="743641240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="743641240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Arduino Values</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="743650752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Second test'!$C$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Force (N)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.44702230971128609"/>
+                  <c:y val="-2.1038203557888598E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Second test'!$A$74:$A$91</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>172.85120000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.947199999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.166399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.6736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6016000000000012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5296000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.4336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.5055999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.1920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-16.384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-40.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-82.124800000000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-164.24960000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Second test'!$C$74:$C$91</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.9756800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99568000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50568000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21168000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4680000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5279999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5480000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5680000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5680000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.4492000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.4292E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.3691999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.132692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.23069200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.52469200000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0146920000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.9946919999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE2D-4EC3-8D36-713F2AD9D0F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="532665904"/>
+        <c:axId val="532664592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="532665904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Arduino</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> value</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532664592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="532664592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Force (N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3888888888888888E-2"/>
+              <c:y val="0.42488407699037622"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532665904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3428,6 +5763,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -3966,6 +6421,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -6053,6 +9024,1554 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6794,6 +11313,161 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6D07C6-9E0B-4C00-87C9-CDEAFC2D2E58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>785812</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E97BC6-F7C3-4AAC-8CF2-BBBDF052EBE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301C8A80-2D2E-4DCD-ACD9-E97A4ABA3440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0653F678-9387-6064-8295-293FD1E0E7BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7106,14 +11780,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7275,7 +11949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE80B884-3EDF-40BD-9ACB-39FB0EA97EE8}">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
@@ -7290,773 +11964,773 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>200</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.72799999999999998</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>100</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.38800000000000001</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>3.3E-3</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>50</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.23599999999999999</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>0.33989999999999998</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>20</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.13700000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.111</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>-0.5</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>6.3E-2</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>-1</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>-2</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>-5</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>-10</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>-20</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>-50</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>-0.10199999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>-100</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>-0.26500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>-200</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>-0.58299999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>-300</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>-0.97699999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>-350</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>-1.0780000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>200</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <f>A28*9.8/1000</f>
         <v>1.9600000000000002</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>100</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <f t="shared" ref="B29:B45" si="0">A29*9.8/1000</f>
         <v>0.98000000000000009</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>50</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>0.49000000000000005</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>0.23599999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>20</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>0.13700000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>10</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <f t="shared" si="0"/>
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>0.111</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>5</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <f t="shared" si="0"/>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>0</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>-0.5</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <f t="shared" si="0"/>
         <v>-4.9000000000000007E-3</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>6.3E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>-1</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <f t="shared" si="0"/>
         <v>-9.8000000000000014E-3</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>-2</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <f t="shared" si="0"/>
         <v>-1.9600000000000003E-2</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>-5</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <f t="shared" si="0"/>
         <v>-4.9000000000000002E-2</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>-10</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <f t="shared" si="0"/>
         <v>-9.8000000000000004E-2</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>-20</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <f t="shared" si="0"/>
         <v>-0.19600000000000001</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>-50</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <f t="shared" si="0"/>
         <v>-0.49000000000000005</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>-0.10199999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>-100</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <f t="shared" si="0"/>
         <v>-0.98000000000000009</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>-0.26500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>-200</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <f t="shared" si="0"/>
         <v>-1.9600000000000002</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>-0.58299999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>-300</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <f t="shared" si="0"/>
         <v>-2.94</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>-0.97699999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>-350</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <f t="shared" si="0"/>
         <v>-3.4300000000000006</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>-1.0780000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>1.9600000000000002</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="8">
         <f>C28*1024/5</f>
         <v>149.09440000000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>0.98000000000000009</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="8">
         <f t="shared" ref="B51:B67" si="1">C29*1024/5</f>
         <v>79.462400000000002</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>0.49000000000000005</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="8">
         <f t="shared" si="1"/>
         <v>48.332799999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="8">
         <f t="shared" si="1"/>
         <v>28.057600000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="8">
         <f t="shared" si="1"/>
         <v>22.732800000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="8">
         <f t="shared" si="1"/>
         <v>17.817599999999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>0</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="8">
         <f t="shared" si="1"/>
         <v>14.131200000000002</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>-4.9000000000000007E-3</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="8">
         <f t="shared" si="1"/>
         <v>12.9024</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>-9.8000000000000014E-3</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="8">
         <f t="shared" si="1"/>
         <v>12.0832</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>-1.9600000000000003E-2</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="8">
         <f t="shared" si="1"/>
         <v>11.4688</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>-4.9000000000000002E-2</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="8">
         <f t="shared" si="1"/>
         <v>9.2159999999999993</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>-9.8000000000000004E-2</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="8">
         <f t="shared" si="1"/>
         <v>5.12</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>-0.19600000000000001</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="8">
         <f t="shared" si="1"/>
         <v>-1.024</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>-0.49000000000000005</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="8">
         <f t="shared" si="1"/>
         <v>-20.889599999999998</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>-0.98000000000000009</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="8">
         <f t="shared" si="1"/>
         <v>-54.272000000000006</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>-1.9600000000000002</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="8">
         <f t="shared" si="1"/>
         <v>-119.3984</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>-2.94</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="8">
         <f t="shared" si="1"/>
         <v>-200.08959999999999</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>-3.4300000000000006</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="8">
         <f t="shared" si="1"/>
         <v>-220.77440000000001</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
+      <c r="A72" s="8">
         <v>149.09440000000001</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="7">
         <v>1.9600000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+      <c r="A73" s="8">
         <v>79.462400000000002</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="7">
         <v>0.98000000000000009</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
+      <c r="A74" s="8">
         <v>48.332799999999999</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="7">
         <v>0.49000000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
+      <c r="A75" s="8">
         <v>28.057600000000001</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="7">
         <v>0.19600000000000001</v>
       </c>
-      <c r="L75" s="9" t="s">
+      <c r="L75" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M75" s="10"/>
-      <c r="N75" s="11"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="14"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
+      <c r="A76" s="8">
         <v>22.732800000000001</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="7">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="L76" s="7" t="s">
+      <c r="L76" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M76" s="7" t="s">
+      <c r="M76" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N76" s="7" t="s">
+      <c r="N76" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
+      <c r="A77" s="8">
         <v>17.817599999999999</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="7">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7">
+      <c r="L77" s="5"/>
+      <c r="M77" s="5">
         <v>1.44E-2</v>
       </c>
-      <c r="N77" s="7">
+      <c r="N77" s="5">
         <v>-0.1915</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
+      <c r="A78" s="8">
         <v>14.131200000000002</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="7">
         <v>0</v>
       </c>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
+      <c r="A79" s="8">
         <v>12.9024</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="7">
         <v>-4.9000000000000007E-3</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
+      <c r="A80" s="8">
         <v>12.0832</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B80" s="7">
         <v>-9.8000000000000014E-3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
+      <c r="A81" s="8">
         <v>11.4688</v>
       </c>
-      <c r="B81" s="12">
+      <c r="B81" s="7">
         <v>-1.9600000000000003E-2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
+      <c r="A82" s="8">
         <v>9.2159999999999993</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="7">
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
+      <c r="A83" s="8">
         <v>5.12</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B83" s="7">
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
+      <c r="A84" s="8">
         <v>-1.024</v>
       </c>
-      <c r="B84" s="12">
+      <c r="B84" s="7">
         <v>-0.19600000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
+      <c r="A85" s="8">
         <v>-20.889599999999998</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B85" s="7">
         <v>-0.49000000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
+      <c r="A86" s="8">
         <v>-54.272000000000006</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B86" s="7">
         <v>-0.98000000000000009</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
+      <c r="A87" s="8">
         <v>-119.3984</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="7">
         <v>-1.9600000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
+      <c r="A88" s="8">
         <v>-200.08959999999999</v>
       </c>
-      <c r="B88" s="12">
+      <c r="B88" s="7">
         <v>-2.94</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
+      <c r="A89" s="8">
         <v>-220.77440000000001</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B89" s="7">
         <v>-3.4300000000000006</v>
       </c>
     </row>
@@ -8071,4 +12745,1072 @@
   <pageSetup paperSize="256" orientation="landscape" horizontalDpi="500" verticalDpi="500" copies="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B303CBBE-2406-45C5-9308-6787CF7F805D}">
+  <dimension ref="A1:O95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>200</v>
+      </c>
+      <c r="B3" s="3">
+        <f>A3+1.6</f>
+        <v>201.6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>100</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B11" si="0">A4+1.6</f>
+        <v>101.6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="5">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>51.6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>21.6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>11.6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="C9" s="15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="C10" s="15">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B13" s="3">
+        <f>A13-3.54</f>
+        <v>-4.54</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>-2</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" ref="B14:B22" si="1">A14-3.54</f>
+        <v>-5.54</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>-5</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.5399999999999991</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>-10</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="1"/>
+        <v>-13.54</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>-20</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="1"/>
+        <v>-23.54</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>-50</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="1"/>
+        <v>-53.54</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>-100</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="1"/>
+        <v>-103.54</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="1"/>
+        <v>-203.54</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="1"/>
+        <v>-303.54000000000002</v>
+      </c>
+      <c r="C21" s="16">
+        <f>-1204/1000</f>
+        <v>-1.204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>-350</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="1"/>
+        <v>-353.54</v>
+      </c>
+      <c r="C22" s="16">
+        <f>-1404/1000</f>
+        <v>-1.4039999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>201.6</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3">
+        <f>A30*9.8/1000</f>
+        <v>1.9756800000000001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.84399999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>101.6</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3">
+        <f t="shared" ref="C31:C49" si="2">A31*9.8/1000</f>
+        <v>0.99568000000000001</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>51.6</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3">
+        <f t="shared" si="2"/>
+        <v>0.50568000000000002</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>21.6</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21168000000000003</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3">
+        <f t="shared" si="2"/>
+        <v>0.11368</v>
+      </c>
+      <c r="D34" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4680000000000001E-2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5279999999999999E-2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5480000000000003E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5680000000000003E-2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>-1.6</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.5680000000000003E-2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>-4.54</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.4492000000000004E-2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>-5.54</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3">
+        <f t="shared" si="2"/>
+        <v>-5.4292E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>-8.5399999999999991</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3">
+        <f t="shared" si="2"/>
+        <v>-8.3691999999999989E-2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>-13.54</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.132692</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>-23.54</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.23069200000000001</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>-53.54</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.52469200000000005</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>-103.54</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.0146920000000001</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>-203.54</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.9946919999999999</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>-303.54000000000002</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.9746920000000006</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-1.204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>-353.54</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.4646920000000003</v>
+      </c>
+      <c r="D49" s="3">
+        <v>-1.4039999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>1.9756800000000001</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="8">
+        <f>D30*1024/5</f>
+        <v>172.85120000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>0.99568000000000001</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="8">
+        <f t="shared" ref="C53:C71" si="3">D31*1024/5</f>
+        <v>92.16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>0.50568000000000002</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="8">
+        <f t="shared" si="3"/>
+        <v>48.947199999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>0.21168000000000003</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="8">
+        <f t="shared" si="3"/>
+        <v>24.166399999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>0.11368</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="8">
+        <f t="shared" si="3"/>
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>6.4680000000000001E-2</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="8">
+        <f t="shared" si="3"/>
+        <v>11.6736</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>3.5279999999999999E-2</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="8">
+        <f t="shared" si="3"/>
+        <v>8.6016000000000012</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>2.5480000000000003E-2</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="8">
+        <f t="shared" si="3"/>
+        <v>7.7824</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>1.5680000000000003E-2</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="8">
+        <f t="shared" si="3"/>
+        <v>5.5296000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>-1.5680000000000003E-2</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="8">
+        <f t="shared" si="3"/>
+        <v>4.0960000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>-4.4492000000000004E-2</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="8">
+        <f t="shared" si="3"/>
+        <v>-1.4336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>-5.4292E-2</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="8">
+        <f t="shared" si="3"/>
+        <v>-2.048</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>-8.3691999999999989E-2</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="8">
+        <f t="shared" si="3"/>
+        <v>-4.5055999999999994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>-0.132692</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="8">
+        <f t="shared" si="3"/>
+        <v>-8.1920000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>-0.23069200000000001</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="8">
+        <f t="shared" si="3"/>
+        <v>-16.384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>-0.52469200000000005</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="8">
+        <f t="shared" si="3"/>
+        <v>-40.96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>-1.0146920000000001</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="8">
+        <f t="shared" si="3"/>
+        <v>-82.124800000000008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>-1.9946919999999999</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="8">
+        <f t="shared" si="3"/>
+        <v>-164.24960000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-2.9746920000000006</v>
+      </c>
+      <c r="C70" s="8">
+        <f t="shared" si="3"/>
+        <v>-246.57919999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-3.4646920000000003</v>
+      </c>
+      <c r="C71" s="8">
+        <f t="shared" si="3"/>
+        <v>-287.53919999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <f>C52</f>
+        <v>172.85120000000001</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="7">
+        <f>A52</f>
+        <v>1.9756800000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <f t="shared" ref="A75:A95" si="4">C53</f>
+        <v>92.16</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="7">
+        <f t="shared" ref="C75:C93" si="5">A53</f>
+        <v>0.99568000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <f t="shared" si="4"/>
+        <v>48.947199999999995</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="7">
+        <f t="shared" si="5"/>
+        <v>0.50568000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <f t="shared" si="4"/>
+        <v>24.166399999999999</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="7">
+        <f t="shared" si="5"/>
+        <v>0.21168000000000003</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N77" s="13"/>
+      <c r="O77" s="14"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <f t="shared" si="4"/>
+        <v>15.36</v>
+      </c>
+      <c r="B78" s="8"/>
+      <c r="C78" s="7">
+        <f t="shared" si="5"/>
+        <v>0.11368</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <f t="shared" si="4"/>
+        <v>11.6736</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="7">
+        <f t="shared" si="5"/>
+        <v>6.4680000000000001E-2</v>
+      </c>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5">
+        <v>1.17E-2</v>
+      </c>
+      <c r="O79" s="5">
+        <v>-5.4699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <f t="shared" si="4"/>
+        <v>8.6016000000000012</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="7">
+        <f t="shared" si="5"/>
+        <v>3.5279999999999999E-2</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <f t="shared" si="4"/>
+        <v>7.7824</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="C81" s="7">
+        <f t="shared" si="5"/>
+        <v>2.5480000000000003E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <f t="shared" si="4"/>
+        <v>5.5296000000000003</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="7">
+        <f t="shared" si="5"/>
+        <v>1.5680000000000003E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <f t="shared" si="4"/>
+        <v>4.0960000000000001</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.5680000000000003E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.4336</v>
+      </c>
+      <c r="B84" s="8"/>
+      <c r="C84" s="7">
+        <f t="shared" si="5"/>
+        <v>-4.4492000000000004E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <f t="shared" si="4"/>
+        <v>-2.048</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="7">
+        <f t="shared" si="5"/>
+        <v>-5.4292E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <f t="shared" si="4"/>
+        <v>-4.5055999999999994</v>
+      </c>
+      <c r="B86" s="8"/>
+      <c r="C86" s="7">
+        <f t="shared" si="5"/>
+        <v>-8.3691999999999989E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <f t="shared" si="4"/>
+        <v>-8.1920000000000002</v>
+      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.132692</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <f t="shared" si="4"/>
+        <v>-16.384</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.23069200000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <f t="shared" si="4"/>
+        <v>-40.96</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.52469200000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <f t="shared" si="4"/>
+        <v>-82.124800000000008</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.0146920000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <f t="shared" si="4"/>
+        <v>-164.24960000000002</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="7">
+        <f t="shared" si="5"/>
+        <v>-1.9946919999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <f t="shared" si="4"/>
+        <v>-246.57919999999999</v>
+      </c>
+      <c r="C92" s="7">
+        <f t="shared" si="5"/>
+        <v>-2.9746920000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <f t="shared" si="4"/>
+        <v>-287.53919999999999</v>
+      </c>
+      <c r="C93" s="7">
+        <f t="shared" si="5"/>
+        <v>-3.4646920000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="C94" s="7"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="M77:O77"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="landscape" horizontalDpi="500" verticalDpi="500" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>